--- a/biology/Botanique/Gliricidia_sepium/Gliricidia_sepium.xlsx
+++ b/biology/Botanique/Gliricidia_sepium/Gliricidia_sepium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gliricidia sepium (ou gliciridia aux Antilles françaises) est un arbre de taille moyenne de la famille des Fabaceae, originaire d'Amérique du Sud et d'Amérique centrale. Cet arbre a été introduit dans de nombreuses zones tropicales du monde pour faire des haies, produire du fourrage ou de l'ombrage aux cultures.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre[3] pouvant atteindre 10-15 m de hauteur possède de jeunes rameaux pubescents et une écorce lisse, grise à rouge brun.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre pouvant atteindre 10-15 m de hauteur possède de jeunes rameaux pubescents et une écorce lisse, grise à rouge brun.
 Les longues feuilles imparipennées, caduques, sont composées de 3-7 paires de folioles, elliptiques ou lancéolées, de 3-8 × 2 cm, à apex aigu ou acuminé.
 Les fleurs roses et blanches sont groupées en grands racèmes (jusqu'à 15 cm de long). Le calice campanulé, taché de rouge, fait 5-6 mm ; la corolle rose-mauve ou blanche, comporte un étendard émarginé, rose à centre jaune, et des ailes roses.  
 La floraison a lieu durant la saison sèche (de mars à juin pendant le carême, aux Antilles).
@@ -546,10 +560,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gliricidia est originaire du nord de l'Amérique du Sud, d'Amérique Centrale et du Mexique. Il est largement cultivé dans la plupart des pays tropicaux. Il s'est naturalisé dans les régions tropicales d'Afrique et d'Asie.
-Cet arbre est très commun aux Antilles françaises[3].
+Cet arbre est très commun aux Antilles françaises.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles contiennent 20 % de protéines[4],[5], de la coumarine, des acides coumariques, féruliques, galliques, p-hydroxybenzoïques, vanilliques, syringiques et sinapiniques[6], de la myricétine, des glycosides de kaempférol et des glucides. Ces composés allélopathiques inhibent la germination des graines des plantes adventices.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles contiennent 20 % de protéines de la coumarine, des acides coumariques, féruliques, galliques, p-hydroxybenzoïques, vanilliques, syringiques et sinapiniques, de la myricétine, des glycosides de kaempférol et des glucides. Ces composés allélopathiques inhibent la germination des graines des plantes adventices.
 Les fleurs contiennent des glycosides de quercétol.
 Dans les graines, de la canavanine et des saponines ont été isolées.
 			Feuille   composée
@@ -615,13 +633,15 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cet arbre sert à constituer des haies d'alignement ou pour l'ombrage. Il pousse rapidement (jusqu'à 3 m la première année) et se multiplie facilement par bouturage ou par semis des graines[7]. Il peut être régulièrement taillé pour fournir du bois de chauffage ou de l'engrais vert[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cet arbre sert à constituer des haies d'alignement ou pour l'ombrage. Il pousse rapidement (jusqu'à 3 m la première année) et se multiplie facilement par bouturage ou par semis des graines. Il peut être régulièrement taillé pour fournir du bois de chauffage ou de l'engrais vert.
 A la saison sèche, les éleveurs peuvent couper les branches pour donner à manger à leur bétail. Malgré la grande valeur nutritive des feuilles, il existe de petits problèmes de toxicité avec les ruminants.
 Il est planté pour stabiliser les sols.
 Cette légumineuse est très utilisée en agroforesterie. Il sert à faire de l'ombre dans les plantations de cacaoyers et de caféiers au Mexique. Il est appelé pour cette raison madre de cacao "mère du cacao".  Il est aussi utilisé dans les plantations de théiers du Sri Lanka, de poivriers, de fruits de la passion, de vanilliers. Comme toutes les légumineuses, il enrichit le sol en azote.
-Il est aussi utilisé comme rodenticide. Cette toxicité viendrait de la conversion par les bactéries de la coumarine en dicoumarine lors de la fermentation des feuilles[9].</t>
+Il est aussi utilisé comme rodenticide. Cette toxicité viendrait de la conversion par les bactéries de la coumarine en dicoumarine lors de la fermentation des feuilles.</t>
         </is>
       </c>
     </row>
